--- a/Мошенское/Перечень ПС.xlsx
+++ b/Мошенское/Перечень ПС.xlsx
@@ -1221,9 +1221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1700,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>8</v>
@@ -1716,8 +1716,8 @@
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="8">
-        <v>6</v>
+      <c r="B29" s="12">
+        <v>0</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>8</v>
@@ -1733,8 +1733,8 @@
       <c r="A30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="8">
-        <v>6</v>
+      <c r="B30" s="12">
+        <v>0</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>8</v>
@@ -1750,8 +1750,8 @@
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="1">
-        <v>6</v>
+      <c r="B31" s="12">
+        <v>0</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>8</v>
@@ -1768,7 +1768,7 @@
         <v>115</v>
       </c>
       <c r="B32" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>8</v>
@@ -1785,7 +1785,7 @@
         <v>117</v>
       </c>
       <c r="B33" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>8</v>
@@ -1802,7 +1802,7 @@
         <v>124</v>
       </c>
       <c r="B34" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>8</v>
@@ -1819,7 +1819,7 @@
         <v>127</v>
       </c>
       <c r="B35" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>8</v>
@@ -1836,7 +1836,7 @@
         <v>130</v>
       </c>
       <c r="B36" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>8</v>
@@ -1853,7 +1853,7 @@
         <v>133</v>
       </c>
       <c r="B37" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>8</v>
@@ -1870,7 +1870,7 @@
         <v>136</v>
       </c>
       <c r="B38" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>8</v>
@@ -1887,7 +1887,7 @@
         <v>139</v>
       </c>
       <c r="B39" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>8</v>
@@ -1904,7 +1904,7 @@
         <v>106</v>
       </c>
       <c r="B40" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>8</v>
@@ -1921,7 +1921,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>8</v>
@@ -1938,7 +1938,7 @@
         <v>107</v>
       </c>
       <c r="B42" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>8</v>
@@ -1955,7 +1955,7 @@
         <v>146</v>
       </c>
       <c r="B43" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>8</v>
@@ -1972,7 +1972,7 @@
         <v>149</v>
       </c>
       <c r="B44" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         <v>154</v>
       </c>
       <c r="B45" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>8</v>
@@ -2006,7 +2006,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>8</v>
@@ -2023,7 +2023,7 @@
         <v>159</v>
       </c>
       <c r="B47" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>8</v>
@@ -2040,7 +2040,7 @@
         <v>139</v>
       </c>
       <c r="B48" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>8</v>
@@ -2057,7 +2057,7 @@
         <v>162</v>
       </c>
       <c r="B49" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>8</v>
@@ -2074,7 +2074,7 @@
         <v>165</v>
       </c>
       <c r="B50" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>8</v>
@@ -2091,7 +2091,7 @@
         <v>170</v>
       </c>
       <c r="B51" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>8</v>
@@ -2108,7 +2108,7 @@
         <v>171</v>
       </c>
       <c r="B52" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>8</v>
@@ -2125,7 +2125,7 @@
         <v>115</v>
       </c>
       <c r="B53" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>8</v>
@@ -2142,7 +2142,7 @@
         <v>117</v>
       </c>
       <c r="B54" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>8</v>
@@ -2159,7 +2159,7 @@
         <v>178</v>
       </c>
       <c r="B55" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>8</v>
@@ -2176,7 +2176,7 @@
         <v>133</v>
       </c>
       <c r="B56" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>8</v>
@@ -2193,7 +2193,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>8</v>
@@ -2210,7 +2210,7 @@
         <v>185</v>
       </c>
       <c r="B58" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>8</v>
@@ -2227,7 +2227,7 @@
         <v>188</v>
       </c>
       <c r="B59" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>8</v>
@@ -2244,7 +2244,7 @@
         <v>191</v>
       </c>
       <c r="B60" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>8</v>
@@ -2261,7 +2261,7 @@
         <v>195</v>
       </c>
       <c r="B61" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         <v>198</v>
       </c>
       <c r="B62" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>8</v>
@@ -2295,7 +2295,7 @@
         <v>201</v>
       </c>
       <c r="B63" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>8</v>
@@ -2312,7 +2312,7 @@
         <v>204</v>
       </c>
       <c r="B64" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>8</v>
@@ -2329,7 +2329,7 @@
         <v>209</v>
       </c>
       <c r="B65" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>8</v>
@@ -2346,7 +2346,7 @@
         <v>211</v>
       </c>
       <c r="B66" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>8</v>
@@ -2363,7 +2363,7 @@
         <v>212</v>
       </c>
       <c r="B67" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>8</v>
@@ -2380,7 +2380,7 @@
         <v>215</v>
       </c>
       <c r="B68" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>8</v>
@@ -2397,7 +2397,7 @@
         <v>220</v>
       </c>
       <c r="B69" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>8</v>
@@ -2414,7 +2414,7 @@
         <v>221</v>
       </c>
       <c r="B70" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>8</v>
@@ -2431,7 +2431,7 @@
         <v>226</v>
       </c>
       <c r="B71" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>8</v>
@@ -2448,7 +2448,7 @@
         <v>227</v>
       </c>
       <c r="B72" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>8</v>
